--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOU\Desktop\git\Special-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505F67E5-F916-42E7-ACFF-D8C3C1BC3456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C70698-D9A6-404A-B7CB-72CC3AA9E20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="2820" windowWidth="19710" windowHeight="11130" xr2:uid="{7AC91281-DB0F-4519-9BFB-0E5343D8316F}"/>
+    <workbookView xWindow="7875" yWindow="3720" windowWidth="19710" windowHeight="11130" xr2:uid="{7AC91281-DB0F-4519-9BFB-0E5343D8316F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A8CD61-5BF3-4A11-9246-74A701831283}">
-  <dimension ref="A1:B3600"/>
+  <dimension ref="A1:B3601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3358" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3600"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -29191,6 +29191,14 @@
         <v>9.5999999999999908</v>
       </c>
     </row>
+    <row r="3601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3601">
+        <v>38.814090739049398</v>
+      </c>
+      <c r="B3601">
+        <v>9.6678006976947906</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
